--- a/Main results/US/Chart 1.xlsx
+++ b/Main results/US/Chart 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Documents\GitHub\rstarBrookings2017\Main results\US\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE44F8D-719B-4F97-9383-00B63DE208F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA05D26-BD37-4288-BB60-E12B2A2C0D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart 1 - Raw Data" sheetId="1" r:id="rId1"/>
@@ -13027,6 +13027,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="994188448"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
@@ -13128,7 +13129,62 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman"/>
+                <a:ea typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>US Natural Rate of Interest (r*) with and without Forward Guidance, 1960–2023</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+              <a:ea typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -13137,22 +13193,12 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Chart 3 - rstar'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>r* (with FG)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="003399"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -14735,29 +14781,19 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2478-4FA8-85B9-462086BEF459}"/>
+              <c16:uniqueId val="{00000000-CBE4-4D71-9C01-D2C487F45B57}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Chart 3 - rstar'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>r* (without FG)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="404040"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -16340,7 +16376,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2478-4FA8-85B9-462086BEF459}"/>
+              <c16:uniqueId val="{00000001-CBE4-4D71-9C01-D2C487F45B57}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -16353,16 +16389,71 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1127399152"/>
-        <c:axId val="1127392432"/>
+        <c:axId val="192611120"/>
+        <c:axId val="192614480"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1127399152"/>
+        <c:axId val="192611120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman"/>
+                    <a:ea typeface="Times New Roman"/>
+                    <a:cs typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Year</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman"/>
+                  <a:ea typeface="Times New Roman"/>
+                  <a:cs typeface="Times New Roman"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -16385,29 +16476,29 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Times New Roman"/>
+                <a:ea typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1127392432"/>
+        <c:crossAx val="192614480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1127392432"/>
+        <c:axId val="192614480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16417,16 +16508,68 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
+                <a:srgbClr val="C8C8C8"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman"/>
+                    <a:ea typeface="Times New Roman"/>
+                    <a:cs typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Natural Rate of Interest (r*), %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman"/>
+                  <a:ea typeface="Times New Roman"/>
+                  <a:cs typeface="Times New Roman"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -16443,22 +16586,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Times New Roman"/>
+                <a:ea typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1127399152"/>
+        <c:crossAx val="192611120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16471,7 +16614,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16485,16 +16628,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="Times New Roman"/>
+              <a:ea typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -16514,18 +16657,26 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
+    <a:extLst>
+      <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+        <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:sysClr>
+          </a:solidFill>
+          <a:round/>
+        </a14:hiddenLine>
+      </a:ext>
+    </a:extLst>
   </c:spPr>
   <c:txPr>
     <a:bodyPr/>
@@ -17704,29 +17855,27 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>338137</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DC3E1E1-ACF0-477F-9181-B21F813E14D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DFBBF87-B8CF-95AD-F568-056F22D7ABCD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -30183,7 +30332,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H315"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AG29" sqref="AG29"/>
     </sheetView>
   </sheetViews>
@@ -38960,8 +39109,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:C392"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
+      <selection activeCell="W217" sqref="W217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
